--- a/biology/Biologie cellulaire et moléculaire/Fomivirsen/Fomivirsen.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Fomivirsen/Fomivirsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Fomivirsen (nom commercial Vitravene) est un médicament antiviral. Il est employé dans le traitement de la rétinite à cytomegalovirus (CMV) chez les patients immunodéprimés, tels que ceux atteints du [SIDA]. Il a été autorisé aux États-Unis par la FDA en août 1998, en en Europe en 1999.
-Il s'agit d'un oligonucléotide[2] de 21 nucléotides reliés entre eux par des liaisons thiophosphates, qui sont résistantes à la dégradation par les nucléases. Sa séquence est :
+Il s'agit d'un oligonucléotide de 21 nucléotides reliés entre eux par des liaisons thiophosphates, qui sont résistantes à la dégradation par les nucléases. Sa séquence est :
 5'-GCG TTT GCT CTT CTT CTT GCG-3'
 </t>
         </is>
@@ -514,10 +526,12 @@
           <t>Mécanisme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fomivirsen agit en se fixant de façon complémentaire à un ARNm viral, empêchant sa traduction en protéine. La protéine en question est indispensable à la multiplication du cytomegalovirus.
-Il est la première thérapie antisens à avoir été approuvée par la FDA[3].
+Il est la première thérapie antisens à avoir été approuvée par la FDA.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Administration</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'administration du fomivirsen se fait par injection intraoculaire, à la concentration de 6,6 mg/mL[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'administration du fomivirsen se fait par injection intraoculaire, à la concentration de 6,6 mg/mL.
 </t>
         </is>
       </c>
